--- a/biology/Zoologie/Felimida_britoi/Felimida_britoi.xlsx
+++ b/biology/Zoologie/Felimida_britoi/Felimida_britoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris de Brito
 Le Doris de Brito, Felimida britoi, est une espèce de nudibranche de la famille des chromodorididés.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nudibranche d'une taille allant de 5 à 20 millimètres[1], possède un manteau bleu à violet, en passant par le mauve. Trois bandes traversent son corps: une centrale, blanche et jaune et deux latérales jaunes plus ou moins bien définies. Les rhinophores, annelés, sont bleus avec une ligne blanche verticale postérieure. Le panache branchial est mauve translucide et le pied, petit, est bleu avec une pointe blanche. Cet animal, usuellement en longueur peut rétracter son corps pour lui faire prendre une forme ovale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nudibranche d'une taille allant de 5 à 20 millimètres, possède un manteau bleu à violet, en passant par le mauve. Trois bandes traversent son corps: une centrale, blanche et jaune et deux latérales jaunes plus ou moins bien définies. Les rhinophores, annelés, sont bleus avec une ligne blanche verticale postérieure. Le panache branchial est mauve translucide et le pied, petit, est bleu avec une pointe blanche. Cet animal, usuellement en longueur peut rétracter son corps pour lui faire prendre une forme ovale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit en mer Méditerranée ou dans l'Atlantique Est proche (Açores, Îles Canaries)[2], de 5 à 30 mètres de profondeur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit en mer Méditerranée ou dans l'Atlantique Est proche (Açores, Îles Canaries), de 5 à 30 mètres de profondeur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le protonyme de cette espèce est Chromodoris britoi Ortea &amp; Perez 1983. En 2012, l'espèce est déplacée dans le genre Felimida[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le protonyme de cette espèce est Chromodoris britoi Ortea &amp; Perez 1983. En 2012, l'espèce est déplacée dans le genre Felimida.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son alimentation est composée d’éponges.[réf. souhaitée]
 </t>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">britoi est un hommage au professeur d'océanologie biologique Alberto Brito[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">britoi est un hommage au professeur d'océanologie biologique Alberto Brito.
 </t>
         </is>
       </c>
@@ -667,14 +689,16 @@
           <t>Espèces similaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Parmi les Chromodoris[1]:
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Parmi les Chromodoris:
 C. krohni (Vérany, 1846)
 C. luteopunctata (Gantès, 1962)
 C. luteorosea (Von Rapp, 1827)
 C. purpurea (Risso in Guérin, 1831)
-Parmi les Hypselodoris[1]:
+Parmi les Hypselodoris:
 H. cantabrica
 H. fontandraui
 H. gasconi
